--- a/MPI.xlsx
+++ b/MPI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/balki/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/balki/CLionProjects/Assignment-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4287383-0C57-0D49-9FFE-BB4830081E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008AE8EA-DB4C-F24B-9102-D04C9A5D95F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18720" xr2:uid="{62CEE3D8-299A-6941-909C-BDF0D180EFBC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18500" xr2:uid="{62CEE3D8-299A-6941-909C-BDF0D180EFBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,10 +147,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D01D5A9-5E85-324C-B28A-532795135F23}">
   <dimension ref="A1:AE101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="V70" sqref="V70"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="AB45" sqref="AB45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,76 +488,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="Q1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
     </row>
     <row r="2" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="Q2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="Q2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
     </row>
     <row r="3" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -594,7 +594,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AB4" s="10"/>
+      <c r="AB4" s="9"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -800,23 +800,23 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
       <c r="Q14" s="6">
         <v>3</v>
       </c>
@@ -829,7 +829,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="10"/>
+      <c r="AC14" s="9"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
     </row>
@@ -1065,7 +1065,7 @@
       <c r="Z24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="10"/>
+      <c r="AD24" s="9"/>
       <c r="AE24" s="1"/>
     </row>
     <row r="25" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1298,7 +1298,7 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
-      <c r="AE34" s="10"/>
+      <c r="AE34" s="9"/>
     </row>
     <row r="35" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q35" s="6"/>
@@ -1435,7 +1435,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
-      <c r="AB45" s="1"/>
+      <c r="AB45" s="9"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -1532,23 +1532,23 @@
     </row>
     <row r="53" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q54" s="9" t="s">
+      <c r="Q54" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
-      <c r="AB54" s="9"/>
-      <c r="AC54" s="9"/>
-      <c r="AD54" s="9"/>
-      <c r="AE54" s="9"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
     </row>
     <row r="55" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q55" s="7" t="s">

--- a/MPI.xlsx
+++ b/MPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/balki/CLionProjects/Assignment-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B25831E-FA54-C644-B7C9-9A221F7E9592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B175913-F14C-FE43-AD5C-85BD97E5DF22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18500" xr2:uid="{62CEE3D8-299A-6941-909C-BDF0D180EFBC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Processor Count = 4</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>CYCLIC</t>
+  </si>
+  <si>
+    <t>Processor Count = 2</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -125,6 +128,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D01D5A9-5E85-324C-B28A-532795135F23}">
   <dimension ref="A1:AE101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,76 +471,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="Q1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
     </row>
     <row r="2" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="Q2" s="7" t="s">
-        <v>0</v>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="Q2" s="8" t="s">
+        <v>3</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
     </row>
     <row r="3" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q3" s="5"/>
@@ -763,6 +769,23 @@
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -778,6 +801,7 @@
       <c r="AE14" s="1"/>
     </row>
     <row r="15" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -793,6 +817,19 @@
       <c r="AE15" s="1"/>
     </row>
     <row r="16" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -807,7 +844,20 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -822,10 +872,36 @@
       <c r="AD17" s="6"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -840,7 +916,8 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -855,7 +932,20 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -870,7 +960,20 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
     </row>
-    <row r="22" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -885,34 +988,311 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="Q24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+    </row>
+    <row r="25" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q26" s="7"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="1"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q27" s="7"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q28" s="7"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q29" s="7"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q31" s="7"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="4"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="4"/>
+    </row>
+    <row r="32" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q32" s="7"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="4"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+    </row>
+    <row r="33" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q33" s="7"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="4"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="4"/>
+    </row>
+    <row r="34" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q34" s="7"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="4"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+    </row>
+    <row r="35" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q36" s="7"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+    </row>
+    <row r="37" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q37" s="7"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="1"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="1"/>
+    </row>
+    <row r="38" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q38" s="7"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+    </row>
+    <row r="39" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q39" s="7"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="1"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="1"/>
+    </row>
+    <row r="40" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q40" s="7"/>
+    </row>
+    <row r="41" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q41" s="7"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="3"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+    </row>
+    <row r="42" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q42" s="7"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="3"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="3"/>
+    </row>
+    <row r="43" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q43" s="7"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="3"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+    </row>
+    <row r="44" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q44" s="7"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="3"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="3"/>
+    </row>
+    <row r="45" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -967,11 +1347,13 @@
     <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="Q1:AE1"/>
     <mergeCell ref="Q2:AE2"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="A14:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
